--- a/Activity_List.xlsx
+++ b/Activity_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4C5B35A-5688-470F-9A31-DA3A28C35380}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB7047B-5E42-4BA5-9292-92CB7BCBA59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{8B0DCA27-A2BB-4362-AA18-6DA2B3083B75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B0DCA27-A2BB-4362-AA18-6DA2B3083B75}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>Objetivos</t>
   </si>
@@ -212,27 +212,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC39BE1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -272,11 +252,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF0070C0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -291,192 +271,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,14 +296,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F60BB8D1-3B8E-4B53-A9AF-A8016F00BDDC}" name="Tabla1" displayName="Tabla1" ref="A1:G16" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F60BB8D1-3B8E-4B53-A9AF-A8016F00BDDC}" name="Tabla1" displayName="Tabla1" ref="A1:G16" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:G16" xr:uid="{D2D139E1-608B-461C-AB2E-753A06A61124}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C8CA6A4D-051F-49DA-BD51-9DCFEF272C9D}" name="Objetivos"/>
     <tableColumn id="2" xr3:uid="{774F86C1-2DDB-43B1-8BEE-FEF668933BFF}" name="Resultados"/>
     <tableColumn id="3" xr3:uid="{85113ACE-494E-41DE-B27D-EA3575793A92}" name="Entregable"/>
     <tableColumn id="7" xr3:uid="{78867794-6CE6-4740-8B20-E4EBEC4E7807}" name="Commit"/>
-    <tableColumn id="4" xr3:uid="{18CAD852-B584-408A-ACE5-37CA50312B8E}" name="Deadline" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{18CAD852-B584-408A-ACE5-37CA50312B8E}" name="Deadline" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{2160702E-492A-4FFB-A1EE-FD33F4CFB9BF}" name="Responsable"/>
     <tableColumn id="6" xr3:uid="{186BBD9E-2AAE-40FC-B12F-4D8021B2A44C}" name="Status"/>
   </tableColumns>
@@ -514,9 +312,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -554,7 +352,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -660,7 +458,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -802,7 +600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -813,7 +611,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,8 +758,8 @@
       <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
+      <c r="G6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -983,8 +781,8 @@
       <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
+      <c r="G7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,8 +896,8 @@
       <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s">
-        <v>19</v>
+      <c r="G12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,8 +919,8 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" t="s">
-        <v>19</v>
+      <c r="G13" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1195,35 +993,32 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:F9">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"Frontend"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F16">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"Backend"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G16">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G16">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"En progreso"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"Frontend"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Backend"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
